--- a/我的家/招财宝.xlsx
+++ b/我的家/招财宝.xlsx
@@ -16262,7 +16262,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16586,10 +16586,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>261.10000000000002</v>
+        <v>262.92</v>
       </c>
       <c r="H9" s="2">
-        <v>54.11</v>
+        <v>52.28</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -16768,7 +16768,7 @@
   <autoFilter ref="A1:F31"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/我的家/招财宝.xlsx
+++ b/我的家/招财宝.xlsx
@@ -21,7 +21,7 @@
     <sheet name="陆金所-王蕾" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'陆金所-苏建超'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'陆金所-苏建超'!$A$1:$F$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">招财宝!$A$1:$L$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">招财宝_王蕾!$A$1:$L$120</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="164">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稳盈-安e+17050716051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稳盈-e享计划 17050710222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16259,10 +16255,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16295,7 +16291,7 @@
         <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
         <v>152</v>
@@ -16498,7 +16494,7 @@
         <v>20000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="14">
         <v>42892</v>
@@ -16540,7 +16536,7 @@
         <v>19509.580000000002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="14">
         <v>42898</v>
@@ -16575,25 +16571,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2">
-        <f>7730.31</f>
-        <v>7730.31</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <f>9754.79</f>
+        <v>9754.7900000000009</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>262.92</v>
+        <v>246.92</v>
       </c>
       <c r="H9" s="2">
-        <v>52.28</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+        <f>68.28-2.04</f>
+        <v>66.239999999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -16615,23 +16608,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="2">
-        <f>9754.79</f>
-        <v>9754.7900000000009</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2">
-        <v>246.92</v>
-      </c>
-      <c r="H11" s="2">
-        <f>68.28-2.04</f>
-        <v>66.239999999999995</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
@@ -16643,9 +16624,9 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -16657,13 +16638,13 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="14"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
@@ -16750,22 +16731,15 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="14"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F30"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/我的家/招财宝.xlsx
+++ b/我的家/招财宝.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="试算" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="164">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14373,10 +14373,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C201" activeCellId="2" sqref="C183 C192 C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16246,6 +16246,281 @@
         <v>9.9535500995355016E-3</v>
       </c>
     </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="16">
+        <v>2017.06</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178" s="10">
+        <v>0</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="16">
+        <v>2017.06</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="7">
+        <v>111620</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="16">
+        <v>2017.06</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" s="7">
+        <f>SUM(C178:C179)</f>
+        <v>111620</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="16">
+        <v>2017.06</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C182" s="10">
+        <v>108540</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="16">
+        <v>2017.06</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C183" s="7">
+        <f>C181-C182</f>
+        <v>3080</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="8">
+        <f>(C183-2000)/C182</f>
+        <v>9.9502487562189053E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="16">
+        <v>2017.07</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="10">
+        <v>0</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="16">
+        <v>2017.07</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188" s="7">
+        <v>108540</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="16">
+        <v>2017.07</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="7">
+        <v>114740</v>
+      </c>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="16">
+        <v>2017.07</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C191" s="10">
+        <v>111620</v>
+      </c>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="16">
+        <v>2017.07</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="7">
+        <f>C190-C191</f>
+        <v>3120</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E192" s="8">
+        <f>(C192-2000)/C191</f>
+        <v>1.00340440781222E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="16">
+        <v>2017.08</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" s="10">
+        <v>0</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="16">
+        <v>2017.08</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="7">
+        <v>117890</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="16">
+        <v>2017.08</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="7">
+        <f>SUM(C196:C197)</f>
+        <v>117890</v>
+      </c>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="16">
+        <v>2017.08</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C200" s="10">
+        <v>114740</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="16">
+        <v>2017.08</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="7">
+        <f>C199-C200</f>
+        <v>3150</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" s="8">
+        <f>(C201-2000)/C200</f>
+        <v>1.0022659926791007E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16257,7 +16532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>

--- a/我的家/招财宝.xlsx
+++ b/我的家/招财宝.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="54">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>稳盈-e享计划 170513035824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2839,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="C206" s="6">
-        <v>117890</v>
+        <v>121070</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -2859,6 +2863,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="6">
+        <f>SUM(C205:C206)</f>
         <v>121070</v>
       </c>
       <c r="D208" s="6"/>
@@ -2894,6 +2899,190 @@
       <c r="E210" s="7">
         <f>(C210-2000)/C209</f>
         <v>1.000933073203834E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="9">
+        <v>0</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" s="6">
+        <v>124280</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" s="5"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="6">
+        <f>SUM(C214:C215)</f>
+        <v>124280</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="9">
+        <v>121070</v>
+      </c>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="6">
+        <f>C217-C218</f>
+        <v>3210</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="7">
+        <f>(C219-2000)/C218</f>
+        <v>9.9942182208639634E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223" s="12">
+        <v>2017.11</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="9">
+        <v>0</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" s="12">
+        <v>2017.11</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" s="6">
+        <v>127520</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" s="5"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" s="12">
+        <v>2017.11</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="6">
+        <f>SUM(C223:C224)</f>
+        <v>127520</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" s="12">
+        <v>2017.11</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="9">
+        <v>124280</v>
+      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" s="12">
+        <v>2017.11</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="6">
+        <f>C226-C227</f>
+        <v>3240</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" s="7">
+        <f>(C228-2000)/C227</f>
+        <v>9.9774702285162532E-3</v>
       </c>
     </row>
   </sheetData>
